--- a/biology/Microbiologie/Aliivibrio_fischeri/Aliivibrio_fischeri.xlsx
+++ b/biology/Microbiologie/Aliivibrio_fischeri/Aliivibrio_fischeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aliivibrio fischeri est une bactérie marine Gram-négative[1]. C'est une bactérie bioluminescente hétérotrophe : certaines colonies sont libres et se nourrissent en décomposant de la matière organique, mais très souvent cette bactérie forme des symbioses avec de nombreux organismes marins. A. fischeri se déplace à l'aide d'un flagelle. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aliivibrio fischeri est une bactérie marine Gram-négative. C'est une bactérie bioluminescente hétérotrophe : certaines colonies sont libres et se nourrissent en décomposant de la matière organique, mais très souvent cette bactérie forme des symbioses avec de nombreux organismes marins. A. fischeri se déplace à l'aide d'un flagelle. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Classification, génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007, des analyses ARN ont permis de reclasser cette espèce, originellement placée dans le genre Vibrio, dans le nouveau genre Aliivibrio[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, des analyses ARN ont permis de reclasser cette espèce, originellement placée dans le genre Vibrio, dans le nouveau genre Aliivibrio.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes planctoniques d'A. fischeri sont présentes en très faibles quantités dans la plupart des océans du globe, plutôt en zone chaude à tempérée. Cette bactérie est bien plus fréquemment présente dans les organes bioluminescents de divers animaux marins. Sa symbiose avec Euprymna scolopes, un petit calamar du Pacifique, est très étudiée pour la compréhension des relations symbiotiques entre animaux et bactéries.
 </t>
@@ -573,7 +589,9 @@
           <t>Bioluminescence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La bioluminescence d'A. fischeri est causée par la transcription de l'opéron lux, qui est induite par la communication intercellulaire dépendante de la population. La population d'A. fischeri doit atteindre un niveau optimal pour activer l'opéron lux et stimuler la production de lumière. Le rythme circadien contrôle l'expression lumineuse, où la luminescence est beaucoup plus brillante pendant la journée et plus faible la nuit, comme nécessaire pour le camouflage.
 Le système luciférine-luciférase bactérien est codé par un ensemble de gènes appelé l'opéron lux. Chez A. fischeri, cinq de ces gènes (luxCDABEG) ont été identifiés comme actifs dans l'émission de lumière visible, et deux gènes (luxR et luxI) sont impliqués dans la régulation de l'opéron. Plusieurs facteurs externes et intrinsèques semblent soit induire soit inhiber la transcription de cet ensemble de gènes et produire ou supprimer l'émission de lumière.
@@ -610,11 +628,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette bactérie est un organisme modèle pour 
-l'étude de la bioluminescence microbienne, de la détection du quorum et des symbioses animaux-bactéries[3]. Son nom est un hommage au microbiologiste allemand Bernhard Fischer (en) (1852-1915)[4] ;
-certains tests en écotoxicologie (à titre d'exemple c'est l'un des organismes qui a permis de mettre en évidence la forte toxicité des mégots de cigarettes pour divers organismes aquatiques[5], et plus récemment il a aussi été utilisé pour l'étude de l'écotoxicité des nanoplastiques.</t>
+l'étude de la bioluminescence microbienne, de la détection du quorum et des symbioses animaux-bactéries. Son nom est un hommage au microbiologiste allemand Bernhard Fischer (en) (1852-1915) ;
+certains tests en écotoxicologie (à titre d'exemple c'est l'un des organismes qui a permis de mettre en évidence la forte toxicité des mégots de cigarettes pour divers organismes aquatiques, et plus récemment il a aussi été utilisé pour l'étude de l'écotoxicité des nanoplastiques.</t>
         </is>
       </c>
     </row>
@@ -642,7 +662,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Achromobacter fischeri (Beijerinck 1889) Bergey et al. 1930
 Bacillus fischeri (Beijerinck 1889) Trevisan 1889
